--- a/moyusi/Keywords/Web/门店模块-关店.xlsx
+++ b/moyusi/Keywords/Web/门店模块-关店.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="99">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,10 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基础信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检查点-基础信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,136 +274,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>检查点-开店按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-停运图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-新门店按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-icon-edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-编辑按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-门店销售商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class ='btns']/button[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-取消按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-开店按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-自动化测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点_xpath对比</t>
+  </si>
+  <si>
+    <t>//span[text()='关店']</t>
+  </si>
+  <si>
+    <t>//*[text()='开店']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-message-box__title</t>
+  </si>
+  <si>
+    <t>检查点_class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-弹窗提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='el-message-box__btns']/button[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-确定按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开店成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开店成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-开店成功提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-message-box__message</t>
+  </si>
+  <si>
     <t>开店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-开店按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">门店销售商品 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">基础信息 </t>
   </si>
   <si>
     <t>停运</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停运</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-停运图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新门店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-新门店按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-icon-edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-编辑按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础信息 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门店销售商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门店销售商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-门店销售商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@class ='btns']/button[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-取消按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-开店按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点_文本不存在</t>
+  </si>
+  <si>
+    <t>检查点_文本存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-table__row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if_id包含</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if元素存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自动化测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-自动化测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点_xpath对比</t>
-  </si>
-  <si>
-    <t>//span[text()='关店']</t>
-  </si>
-  <si>
-    <t>//*[text()='开店']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-message-box__title</t>
-  </si>
-  <si>
-    <t>el-table__row</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点_class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-查询结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-弹窗提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@class='el-message-box__btns']/button[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-确定按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开店成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开店成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-开店成功提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-message-box__message</t>
   </si>
 </sst>
 </file>
@@ -498,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -535,6 +523,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -815,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25"/>
@@ -1038,10 +1027,10 @@
         <v>40</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1070,10 +1059,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="1" t="s">
@@ -1131,10 +1120,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1152,30 +1141,30 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1183,10 +1172,10 @@
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1194,13 +1183,13 @@
         <v>9</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1221,10 +1210,10 @@
         <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1232,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="11">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="10" t="s">
@@ -1247,14 +1236,14 @@
       <c r="B32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>67</v>
+      <c r="D32" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1264,14 +1253,14 @@
       <c r="B33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>70</v>
+      <c r="D33" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1">
@@ -1279,13 +1268,13 @@
         <v>9</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1">
@@ -1293,326 +1282,313 @@
         <v>9</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A36" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="13"/>
+    <row r="36" spans="1:6">
+      <c r="A36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="6" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="D37" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="E37" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="6" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A39" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A47" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A40" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="11">
-        <v>3000</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A41" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A43" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="11">
-        <v>3000</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A44" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A46" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A48" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="11">
-        <v>3000</v>
-      </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="13"/>
+      <c r="E48" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="6" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="D49" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="E49" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="6" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A51" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="1:6" s="20" customFormat="1">
+      <c r="A52" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A53" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A52" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="11">
-        <v>3000</v>
-      </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="13"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A54" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>54</v>
+      <c r="B54" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>83</v>
       </c>
+      <c r="F55" s="15" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>100</v>
+        <v>16</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>98</v>
+      <c r="D58" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/moyusi/Keywords/Web/门店模块-关店.xlsx
+++ b/moyusi/Keywords/Web/门店模块-关店.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="99">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>·</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检查点-基础信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,10 +339,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@class='el-message-box__btns']/button[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击-确定按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,6 +387,14 @@
   </si>
   <si>
     <t>自动化测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='el-message-box__btns']/button[2]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='search-in']/button/span</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25"/>
@@ -1027,10 +1027,10 @@
         <v>40</v>
       </c>
       <c r="D15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1038,7 +1038,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>44</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="1" t="s">
@@ -1096,7 +1096,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>44</v>
@@ -1120,10 +1120,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1141,30 +1141,30 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="F25" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1172,10 +1172,10 @@
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1183,13 +1183,13 @@
         <v>9</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1210,10 +1210,10 @@
         <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1233,34 +1233,28 @@
       <c r="A32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D32" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D33" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1">
@@ -1268,13 +1262,13 @@
         <v>9</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1">
@@ -1282,10 +1276,10 @@
         <v>9</v>
       </c>
       <c r="D35" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>26</v>
@@ -1310,10 +1304,10 @@
         <v>40</v>
       </c>
       <c r="D37" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1321,7 +1315,7 @@
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>44</v>
@@ -1345,24 +1339,24 @@
         <v>9</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1382,22 +1376,19 @@
       <c r="A43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="D43" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F43" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>19</v>
@@ -1410,28 +1401,25 @@
       <c r="A45" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D45" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1">
@@ -1466,10 +1454,10 @@
         <v>40</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1498,30 +1486,27 @@
     </row>
     <row r="52" spans="1:6" s="20" customFormat="1">
       <c r="A52" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D52" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="20" t="s">
         <v>95</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75" customHeight="1">
       <c r="A53" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1529,38 +1514,38 @@
         <v>16</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B55" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="F55" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1568,27 +1553,24 @@
         <v>16</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D58" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F58" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
